--- a/data/trans_bre/P16A10-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.476591676147899</v>
+        <v>-3.683911877436903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.653145431588997</v>
+        <v>-8.035828351456146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.061139545597956</v>
+        <v>-3.871151001856016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.694562394118853</v>
+        <v>-4.521802574727865</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6047249171165452</v>
+        <v>-0.612777645501566</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5631638664251672</v>
+        <v>-0.5557200947826272</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7261611155166333</v>
+        <v>-0.7024216702245512</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.677684265448254</v>
+        <v>2.69993639593607</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.341643314117321</v>
+        <v>-2.805406665893794</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.84168958026609</v>
+        <v>2.921862354516516</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.7946328897431949</v>
+        <v>-0.6479485262236174</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8151968363120339</v>
+        <v>0.8274578955714265</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.5131789081612697</v>
+        <v>-0.5025310965809369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7419183782716667</v>
+        <v>0.6683710662409501</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1562991875166742</v>
+        <v>-0.126561924471127</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.147951899102901</v>
+        <v>-3.867880437822695</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.89499412256703</v>
+        <v>-5.321159445594558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.055248953664464</v>
+        <v>-5.735954076079114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.193860592762216</v>
+        <v>-5.157885952867454</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.847210026063166</v>
+        <v>-0.8436571183491918</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.9039413271497077</v>
+        <v>-0.8783109988467436</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8387249263460083</v>
+        <v>-0.8295276294727598</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7308081118296947</v>
+        <v>0.6468726432442162</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.7634319834744637</v>
+        <v>-0.4758723392170002</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.3965605351456463</v>
+        <v>-0.415942467392141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.429512309406886</v>
+        <v>-1.337774746558185</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5122841437534524</v>
+        <v>0.4645660816091072</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0003316489716477904</v>
+        <v>0.2398395508874566</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05747067149885164</v>
+        <v>0.009673087421663843</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.363081845454128</v>
+        <v>-0.3373491658134039</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.827611253707732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.2325996562626623</v>
+        <v>-0.2325996562626609</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4237258320237171</v>
@@ -849,7 +849,7 @@
         <v>-0.2598834518840243</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03234703686369027</v>
+        <v>-0.03234703686369008</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.697018312183595</v>
+        <v>-5.737970899046363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.283237528117527</v>
+        <v>-4.902522981561478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.550037463888911</v>
+        <v>-5.526780596160083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.759928903028333</v>
+        <v>-3.701891660610776</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7937943573355344</v>
+        <v>-0.8110096276398144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7200879562309488</v>
+        <v>-0.7032338301302601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6989645388427053</v>
+        <v>-0.7078503749381797</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4671093795151264</v>
+        <v>-0.4645432082887248</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.51748104471886</v>
+        <v>1.720143953819239</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9627861380654964</v>
+        <v>1.45356912448022</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.808854892819835</v>
+        <v>3.983140469509267</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.1672167634612</v>
+        <v>4.890555144698794</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3602395994558347</v>
+        <v>0.3826193493204325</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1749819754164556</v>
+        <v>0.3348188290209735</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7320463920423155</v>
+        <v>0.6289453471444831</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8942776824701552</v>
+        <v>0.8659562613412264</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-3.45306715683253</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.377620704702528</v>
+        <v>-3.377620704702529</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4361929910663769</v>
@@ -949,7 +949,7 @@
         <v>-0.4891508454310036</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4854877898158584</v>
+        <v>-0.4854877898158585</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.076338617163846</v>
+        <v>-5.328680468217319</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.908056760613768</v>
+        <v>-4.768140894254487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.551963975491908</v>
+        <v>-5.45373341478064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.18744387265555</v>
+        <v>-5.106310210882433</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6284388083595935</v>
+        <v>-0.6471903967624956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.71781763242512</v>
+        <v>-0.7085642612443258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6714804655781662</v>
+        <v>-0.6747417397858555</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6479102914807534</v>
+        <v>-0.6339496427244412</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.9736110247900149</v>
+        <v>-1.050317002463168</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.302266971266108</v>
+        <v>-1.027261547577837</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.292441822322424</v>
+        <v>-1.471872558427352</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.849591516244152</v>
+        <v>-1.594351423455118</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.149337869359182</v>
+        <v>-0.1566087215263907</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2318705230072549</v>
+        <v>-0.1856357785529467</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.199222779707809</v>
+        <v>-0.2065063046168315</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2853517315258436</v>
+        <v>-0.2790977445360536</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.1913616038266111</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4075793283109181</v>
+        <v>0.4075793283109183</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.173662440982339</v>
+        <v>-2.011175969764551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8037577409665809</v>
+        <v>-0.5896582129743591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.780170644062149</v>
+        <v>-3.939784821233091</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.06809841194640527</v>
+        <v>-0.003792650169239898</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.328450319264465</v>
+        <v>-0.2917267764707857</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1309770623304647</v>
+        <v>-0.08350381951755863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4659030122933125</v>
+        <v>-0.4847360120942258</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0119322510375516</v>
+        <v>-0.001584615084522516</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.999820913593219</v>
+        <v>4.405019393767129</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.113366177714977</v>
+        <v>5.415616813782628</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.385826709759066</v>
+        <v>1.242329080963294</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.204330229431353</v>
+        <v>4.205069574952704</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.097979609892911</v>
+        <v>1.187088691678453</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.072754365019611</v>
+        <v>1.273231760085519</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2584027731704465</v>
+        <v>0.2278457132160573</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.016151929160432</v>
+        <v>1.04228432676358</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.082142937013359</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8.157357854719313</v>
+        <v>8.157357854719312</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>24.84145254075871</v>
@@ -1162,24 +1162,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.363447346941249</v>
+        <v>5.226379823087905</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.415195407361595</v>
+        <v>1.43582146949032</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.441925310382331</v>
+        <v>6.459302074130314</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.534058989084676</v>
+        <v>6.436732654089106</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>0.04563015468822738</v>
+        <v>0.1800502339765572</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>3.662608359780859</v>
+        <v>4.483486499177517</v>
       </c>
     </row>
     <row r="21">
@@ -1190,20 +1190,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.382380246736803</v>
+        <v>8.29032845135883</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.499263189895414</v>
+        <v>6.548190710383642</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.99634848913853</v>
+        <v>10.07502064021739</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.895366502882874</v>
+        <v>9.670850222694236</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>9.58473481467415</v>
+        <v>11.97390801631071</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="inlineStr"/>
@@ -1229,7 +1229,7 @@
         <v>-0.5908556056748365</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.2388120783632521</v>
+        <v>-0.2388120783632541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.0233183110949279</v>
@@ -1241,7 +1241,7 @@
         <v>-0.09849686921361342</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.04192563963637874</v>
+        <v>-0.0419256396363791</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.245565760888162</v>
+        <v>-1.169628726288683</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.653046206558973</v>
+        <v>-1.561501951908997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.725109634019609</v>
+        <v>-1.859996437956148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.200696144756334</v>
+        <v>-1.242160010337912</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2084993530899777</v>
+        <v>-0.1968858913885687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2744009598443393</v>
+        <v>-0.2619166887218934</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2610023796720772</v>
+        <v>-0.2765956025768242</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1914913842060869</v>
+        <v>-0.2011797654535318</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9664397165524785</v>
+        <v>0.9687163328975538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5394172559629671</v>
+        <v>0.6138219109721785</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5390469152128008</v>
+        <v>0.5645682552350475</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6184465423242217</v>
+        <v>0.6031551964814159</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1953116481282743</v>
+        <v>0.1996126524691091</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1158459654665196</v>
+        <v>0.1330477658103553</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09885825961609156</v>
+        <v>0.1087114358181743</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1193308561303997</v>
+        <v>0.1188144001872575</v>
       </c>
     </row>
     <row r="25">
